--- a/Timesheets/kjohnson7.xlsx
+++ b/Timesheets/kjohnson7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Admin Password Controls, Start Database Connection Setting Window</t>
+  </si>
+  <si>
+    <t>06/05/2015 Fri</t>
+  </si>
+  <si>
+    <t>3:15pm-4:45pm</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -337,8 +343,12 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>

--- a/Timesheets/kjohnson7.xlsx
+++ b/Timesheets/kjohnson7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>3:15pm-4:45pm</t>
+  </si>
+  <si>
+    <t>Database Connection Settings Window</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -349,8 +352,12 @@
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
